--- a/100runs/run043/NotionalETEOutput043.xlsx
+++ b/100runs/run043/NotionalETEOutput043.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="15">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,22 +49,16 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND_State_Update</t>
+    <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>Missile_HELLMASKER_State_Update</t>
+    <t>MISSILE_SOMERSAULT_354.MISSILE_SOMERSAULT_354</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_340.MISSILE_HIGHWIND_340</t>
+    <t>MISSILE_SOMERSAULT_37.MISSILE_SOMERSAULT_37</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_80.MISSILE_HELLMASKER_80</t>
-  </si>
-  <si>
-    <t>MISSILE_HIGHWIND</t>
-  </si>
-  <si>
-    <t>MISSILE_HELLMASKER</t>
+    <t>MISSILE_SOMERSAULT</t>
   </si>
 </sst>
 </file>
@@ -471,31 +465,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>254.4119569177748</v>
+        <v>1116579.882235174</v>
       </c>
       <c r="G2">
-        <v>-139.0641655614077</v>
+        <v>4841121.631008235</v>
       </c>
       <c r="H2">
-        <v>1021.510255179439</v>
+        <v>3985218.179937184</v>
       </c>
       <c r="I2">
-        <v>-1696.471215873077</v>
+        <v>1114861.600400007</v>
       </c>
       <c r="J2">
-        <v>3059.277633687953</v>
+        <v>4843219.465238318</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984370.366938686</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -506,31 +500,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>254.4119569177748</v>
+        <v>1116579.882235174</v>
       </c>
       <c r="G3">
-        <v>-139.0641655614077</v>
+        <v>4841121.631008235</v>
       </c>
       <c r="H3">
-        <v>1021.510255179439</v>
+        <v>3985218.179937184</v>
       </c>
       <c r="I3">
-        <v>-1662.97835681453</v>
+        <v>1114891.214402925</v>
       </c>
       <c r="J3">
-        <v>2984.858275822138</v>
+        <v>4843170.813688349</v>
       </c>
       <c r="K3">
-        <v>350.2829922947034</v>
+        <v>3984674.162934151</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -541,31 +535,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>254.4119569177748</v>
+        <v>1116579.882235174</v>
       </c>
       <c r="G4">
-        <v>-139.0641655614077</v>
+        <v>4841121.631008235</v>
       </c>
       <c r="H4">
-        <v>1021.510255179439</v>
+        <v>3985218.179937184</v>
       </c>
       <c r="I4">
-        <v>-1628.660766914531</v>
+        <v>1114921.55762342</v>
       </c>
       <c r="J4">
-        <v>2910.438917956322</v>
+        <v>4843122.162138379</v>
       </c>
       <c r="K4">
-        <v>683.0992689539984</v>
+        <v>3984962.810268733</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -576,31 +570,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>254.4119569177748</v>
+        <v>1116579.882235174</v>
       </c>
       <c r="G5">
-        <v>-139.0641655614077</v>
+        <v>4841121.631008235</v>
       </c>
       <c r="H5">
-        <v>1021.510255179439</v>
+        <v>3985218.179937184</v>
       </c>
       <c r="I5">
-        <v>-1593.498137934848</v>
+        <v>1114952.648017805</v>
       </c>
       <c r="J5">
-        <v>2836.019560090507</v>
+        <v>4843073.51058841</v>
       </c>
       <c r="K5">
-        <v>998.4488299778875</v>
+        <v>3985236.308942429</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,31 +605,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>254.4119569177748</v>
+        <v>1116579.882235174</v>
       </c>
       <c r="G6">
-        <v>-139.0641655614077</v>
+        <v>4841121.631008235</v>
       </c>
       <c r="H6">
-        <v>1021.510255179439</v>
+        <v>3985218.179937184</v>
       </c>
       <c r="I6">
-        <v>-1557.469661565567</v>
+        <v>1114984.503984549</v>
       </c>
       <c r="J6">
-        <v>2761.600202224691</v>
+        <v>4843024.859038441</v>
       </c>
       <c r="K6">
-        <v>1296.331675366369</v>
+        <v>3985494.658955241</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -646,31 +640,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>254.4119569177748</v>
+        <v>1116579.882235174</v>
       </c>
       <c r="G7">
-        <v>-139.0641655614077</v>
+        <v>4841121.631008235</v>
       </c>
       <c r="H7">
-        <v>1021.510255179439</v>
+        <v>3985218.179937184</v>
       </c>
       <c r="I7">
-        <v>-1520.554017111281</v>
+        <v>1115017.144375167</v>
       </c>
       <c r="J7">
-        <v>2687.180844358876</v>
+        <v>4842976.207488473</v>
       </c>
       <c r="K7">
-        <v>1576.747805119444</v>
+        <v>3985737.860307168</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -681,31 +675,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>254.4119569177748</v>
+        <v>1116579.882235174</v>
       </c>
       <c r="G8">
-        <v>-139.0641655614077</v>
+        <v>4841121.631008235</v>
       </c>
       <c r="H8">
-        <v>1021.510255179439</v>
+        <v>3985218.179937184</v>
       </c>
       <c r="I8">
-        <v>-1482.72935887408</v>
+        <v>1115050.588505375</v>
       </c>
       <c r="J8">
-        <v>2612.76148649306</v>
+        <v>4842927.555938503</v>
       </c>
       <c r="K8">
-        <v>1839.697219237112</v>
+        <v>3985965.912998209</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,31 +710,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>254.4119569177748</v>
+        <v>1116579.882235174</v>
       </c>
       <c r="G9">
-        <v>-139.0641655614077</v>
+        <v>4841121.631008235</v>
       </c>
       <c r="H9">
-        <v>1021.510255179439</v>
+        <v>3985218.179937184</v>
       </c>
       <c r="I9">
-        <v>-1443.973303225835</v>
+        <v>1115084.856166522</v>
       </c>
       <c r="J9">
-        <v>2538.342128627244</v>
+        <v>4842878.904388534</v>
       </c>
       <c r="K9">
-        <v>2085.179917719373</v>
+        <v>3986178.817028366</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,31 +745,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>254.4119569177748</v>
+        <v>1116579.882235174</v>
       </c>
       <c r="G10">
-        <v>-116.100757428485</v>
+        <v>4841138.143817443</v>
       </c>
       <c r="H10">
-        <v>1021.510255179439</v>
+        <v>3985218.179937184</v>
       </c>
       <c r="I10">
-        <v>-1404.262915362169</v>
+        <v>1115119.967637299</v>
       </c>
       <c r="J10">
-        <v>2463.922770761429</v>
+        <v>4842830.252838565</v>
       </c>
       <c r="K10">
-        <v>2313.195900566227</v>
+        <v>3986376.572397639</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,31 +780,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>197.4533573661267</v>
+        <v>1116531.201611309</v>
       </c>
       <c r="G11">
-        <v>-93.13734929556229</v>
+        <v>4841154.656626652</v>
       </c>
       <c r="H11">
-        <v>1258.493760581545</v>
+        <v>3985417.433836556</v>
       </c>
       <c r="I11">
-        <v>-1363.574695730248</v>
+        <v>1115155.943695741</v>
       </c>
       <c r="J11">
-        <v>2389.503412895613</v>
+        <v>4842781.601288596</v>
       </c>
       <c r="K11">
-        <v>2523.745167777673</v>
+        <v>3986559.179106026</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,31 +815,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>163.9930374813328</v>
+        <v>1116502.604186872</v>
       </c>
       <c r="G12">
-        <v>-70.17394116263958</v>
+        <v>4841171.169435861</v>
       </c>
       <c r="H12">
-        <v>1399.653256195624</v>
+        <v>3985536.119649252</v>
       </c>
       <c r="I12">
-        <v>-1321.884566122366</v>
+        <v>1115192.805631526</v>
       </c>
       <c r="J12">
-        <v>2315.084055029798</v>
+        <v>4842732.949738627</v>
       </c>
       <c r="K12">
-        <v>2716.827719353714</v>
+        <v>3986726.63715353</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,31 +850,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>142.8704287967844</v>
+        <v>1116484.551394554</v>
       </c>
       <c r="G13">
-        <v>-47.21053302971686</v>
+        <v>4841187.68224507</v>
       </c>
       <c r="H13">
-        <v>1500.530407105428</v>
+        <v>3985620.936377919</v>
       </c>
       <c r="I13">
-        <v>-1279.167855427105</v>
+        <v>1115230.575258567</v>
       </c>
       <c r="J13">
-        <v>2240.664697163982</v>
+        <v>4842684.298188658</v>
       </c>
       <c r="K13">
-        <v>2892.443555294347</v>
+        <v>3986878.946540148</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,31 +885,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>128.1396072418827</v>
+        <v>1116471.961450473</v>
       </c>
       <c r="G14">
-        <v>-24.24712489679414</v>
+        <v>4841204.195054278</v>
       </c>
       <c r="H14">
-        <v>1579.083390473919</v>
+        <v>3985686.983119091</v>
       </c>
       <c r="I14">
-        <v>-1235.399285029627</v>
+        <v>1115269.274927926</v>
       </c>
       <c r="J14">
-        <v>2166.245339298166</v>
+        <v>4842635.64663869</v>
       </c>
       <c r="K14">
-        <v>3050.592675599573</v>
+        <v>3987016.107265881</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,31 +920,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>117.1499732241529</v>
+        <v>1116462.568975162</v>
       </c>
       <c r="G15">
-        <v>-1.283716763871445</v>
+        <v>4841220.707863486</v>
       </c>
       <c r="H15">
-        <v>1643.424376977501</v>
+        <v>3985741.080523164</v>
       </c>
       <c r="I15">
-        <v>-1190.552953852458</v>
+        <v>1115308.927541041</v>
       </c>
       <c r="J15">
-        <v>2091.825981432351</v>
+        <v>4842586.995088721</v>
       </c>
       <c r="K15">
-        <v>3191.275080269392</v>
+        <v>3987138.119330729</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,31 +955,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>108.5576140791812</v>
+        <v>1116455.225371089</v>
       </c>
       <c r="G16">
-        <v>21.67969136905127</v>
+        <v>4841237.220672695</v>
       </c>
       <c r="H16">
-        <v>1697.916495881658</v>
+        <v>3985786.897075495</v>
       </c>
       <c r="I16">
-        <v>-1144.60232302792</v>
+        <v>1115349.556563273</v>
       </c>
       <c r="J16">
-        <v>2017.406623566535</v>
+        <v>4842538.343538751</v>
       </c>
       <c r="K16">
-        <v>3314.490769303804</v>
+        <v>3987244.982734693</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,31 +990,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>101.6057699007153</v>
+        <v>1116449.283860689</v>
       </c>
       <c r="G17">
-        <v>44.64309950197399</v>
+        <v>4841253.733481904</v>
       </c>
       <c r="H17">
-        <v>1745.178484537119</v>
+        <v>3985826.634590203</v>
       </c>
       <c r="I17">
-        <v>-1097.520200193132</v>
+        <v>1115391.1860378</v>
       </c>
       <c r="J17">
-        <v>1942.987265700719</v>
+        <v>4842489.691988782</v>
       </c>
       <c r="K17">
-        <v>3420.239742702809</v>
+        <v>3987336.697477772</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,31 +1025,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>95.83326215173889</v>
+        <v>1116444.350289978</v>
       </c>
       <c r="G18">
-        <v>67.6065076348967</v>
+        <v>4841270.246291112</v>
       </c>
       <c r="H18">
-        <v>1786.906143771317</v>
+        <v>3985861.718883517</v>
       </c>
       <c r="I18">
-        <v>-1049.278723398296</v>
+        <v>1115433.840599839</v>
       </c>
       <c r="J18">
-        <v>1868.567907834904</v>
+        <v>4842441.040438813</v>
       </c>
       <c r="K18">
-        <v>3508.522000466408</v>
+        <v>3987413.263559966</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,31 +1060,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>90.94149616172409</v>
+        <v>1116440.169460005</v>
       </c>
       <c r="G19">
-        <v>90.56991576781944</v>
+        <v>4841286.759100321</v>
       </c>
       <c r="H19">
-        <v>1824.260795596005</v>
+        <v>3985893.126386006</v>
       </c>
       <c r="I19">
-        <v>-999.8493446187319</v>
+        <v>1115477.545491226</v>
       </c>
       <c r="J19">
-        <v>1794.148549969088</v>
+        <v>4842392.388888844</v>
       </c>
       <c r="K19">
-        <v>3579.337542594599</v>
+        <v>3987474.680981276</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,31 +1095,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>86.72771700380814</v>
+        <v>1116436.568082868</v>
       </c>
       <c r="G20">
-        <v>113.5333239007421</v>
+        <v>4841303.271909529</v>
       </c>
       <c r="H20">
-        <v>1858.072688257228</v>
+        <v>3985921.555163977</v>
       </c>
       <c r="I20">
-        <v>-949.2028128609159</v>
+        <v>1115522.326575357</v>
       </c>
       <c r="J20">
-        <v>1719.729192103273</v>
+        <v>4842343.737338874</v>
       </c>
       <c r="K20">
-        <v>3632.686369087383</v>
+        <v>3987520.9497417</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,31 +1130,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>83.04887006567009</v>
+        <v>1116433.423894537</v>
       </c>
       <c r="G21">
-        <v>136.4967320336648</v>
+        <v>4841319.784718738</v>
       </c>
       <c r="H21">
-        <v>1888.955991488687</v>
+        <v>3985947.521606595</v>
       </c>
       <c r="I21">
-        <v>-897.3091568525188</v>
+        <v>1115568.210352486</v>
       </c>
       <c r="J21">
-        <v>1645.309834237457</v>
+        <v>4842295.085788906</v>
       </c>
       <c r="K21">
-        <v>3668.56847994476</v>
+        <v>3987552.069841241</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,31 +1165,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>79.80079592407242</v>
+        <v>1116430.647873412</v>
       </c>
       <c r="G22">
-        <v>159.4601401665876</v>
+        <v>4841336.297527947</v>
       </c>
       <c r="H22">
-        <v>1917.377828718181</v>
+        <v>3985971.418467626</v>
       </c>
       <c r="I22">
-        <v>-844.1376673062025</v>
+        <v>1115615.223975414</v>
       </c>
       <c r="J22">
-        <v>1570.890476371642</v>
+        <v>4842246.434238937</v>
       </c>
       <c r="K22">
-        <v>3686.983875166731</v>
+        <v>3987568.041279895</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,31 +1200,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>76.90563502995514</v>
+        <v>1116428.173475523</v>
       </c>
       <c r="G23">
-        <v>182.4235482995103</v>
+        <v>4841352.810337155</v>
       </c>
       <c r="H23">
-        <v>1943.701768965176</v>
+        <v>3985993.551433092</v>
       </c>
       <c r="I23">
-        <v>-789.6568787466817</v>
+        <v>1115663.395265555</v>
       </c>
       <c r="J23">
-        <v>1496.471118505826</v>
+        <v>4842197.782688968</v>
       </c>
       <c r="K23">
-        <v>3687.932554753294</v>
+        <v>3987568.864057666</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,31 +1235,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>74.3038757367279</v>
+        <v>1116425.94983824</v>
       </c>
       <c r="G24">
-        <v>205.386956432433</v>
+        <v>4841369.323146364</v>
       </c>
       <c r="H24">
-        <v>1968.216340481099</v>
+        <v>3986014.163095315</v>
       </c>
       <c r="I24">
-        <v>-733.8345508902894</v>
+        <v>1115712.7527294</v>
       </c>
       <c r="J24">
-        <v>1422.05176064001</v>
+        <v>4842149.131138998</v>
       </c>
       <c r="K24">
-        <v>3671.41451870445</v>
+        <v>3987554.538174551</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,31 +1270,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>71.94915235678538</v>
+        <v>1116423.93733435</v>
       </c>
       <c r="G25">
-        <v>228.3503645653557</v>
+        <v>4841385.835955572</v>
       </c>
       <c r="H25">
-        <v>1991.154359289757</v>
+        <v>3986033.44920421</v>
       </c>
       <c r="I25">
-        <v>-676.6376495660328</v>
+        <v>1115763.325575383</v>
       </c>
       <c r="J25">
-        <v>1347.632402774195</v>
+        <v>4842100.479589029</v>
       </c>
       <c r="K25">
-        <v>3637.4297670202</v>
+        <v>3987525.063630552</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,31 +1305,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>69.80473704188393</v>
+        <v>1116422.104573781</v>
       </c>
       <c r="G26">
-        <v>251.3137726982785</v>
+        <v>4841402.348764781</v>
       </c>
       <c r="H26">
-        <v>2012.706409287164</v>
+        <v>3986051.570001243</v>
       </c>
       <c r="I26">
-        <v>-618.032327166851</v>
+        <v>1115815.143731173</v>
       </c>
       <c r="J26">
-        <v>1273.213044908379</v>
+        <v>4842051.82803906</v>
       </c>
       <c r="K26">
-        <v>3585.978299700542</v>
+        <v>3987480.440425667</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,31 +1340,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>67.84111074770784</v>
+        <v>1116420.426327585</v>
       </c>
       <c r="G27">
-        <v>274.2771808312011</v>
+        <v>4841418.861573989</v>
       </c>
       <c r="H27">
-        <v>2033.030476811982</v>
+        <v>3986068.658320105</v>
       </c>
       <c r="I27">
-        <v>-557.9839026194975</v>
+        <v>1115868.237861377</v>
       </c>
       <c r="J27">
-        <v>1198.793687042563</v>
+        <v>4842003.176489091</v>
       </c>
       <c r="K27">
-        <v>3517.060116745477</v>
+        <v>3987420.668559899</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,31 +1375,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>66.03424212685778</v>
+        <v>1116418.882056967</v>
       </c>
       <c r="G28">
-        <v>297.2405889641238</v>
+        <v>4841435.374383198</v>
       </c>
       <c r="H28">
-        <v>2052.258985369036</v>
+        <v>3986084.825501456</v>
       </c>
       <c r="I28">
-        <v>-496.4568408612033</v>
+        <v>1115922.639385692</v>
       </c>
       <c r="J28">
-        <v>1124.374329176748</v>
+        <v>4841954.524939123</v>
       </c>
       <c r="K28">
-        <v>3430.675218155006</v>
+        <v>3987345.748033245</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,31 +1410,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>64.36434297396214</v>
+        <v>1116417.454849606</v>
       </c>
       <c r="G29">
-        <v>320.2039970970466</v>
+        <v>4841451.887192407</v>
       </c>
       <c r="H29">
-        <v>2070.504029439515</v>
+        <v>3986100.16579347</v>
       </c>
       <c r="I29">
-        <v>-433.4147318109693</v>
+        <v>1115978.380497494</v>
       </c>
       <c r="J29">
-        <v>1049.954971310932</v>
+        <v>4841905.873389154</v>
       </c>
       <c r="K29">
-        <v>3326.823603929128</v>
+        <v>3987255.678845707</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,31 +1445,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>62.81495186282375</v>
+        <v>1116416.130636467</v>
       </c>
       <c r="G30">
-        <v>343.1674052299692</v>
+        <v>4841468.400001614</v>
       </c>
       <c r="H30">
-        <v>2087.861333782178</v>
+        <v>3986114.759680782</v>
       </c>
       <c r="I30">
-        <v>-368.8202688230503</v>
+        <v>1116035.494182894</v>
       </c>
       <c r="J30">
-        <v>975.5356134451164</v>
+        <v>4841857.221839185</v>
       </c>
       <c r="K30">
-        <v>3205.505274067842</v>
+        <v>3987150.460997284</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,31 +1480,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>61.37224843851669</v>
+        <v>1116414.897605752</v>
       </c>
       <c r="G31">
-        <v>366.130813362892</v>
+        <v>4841484.912810824</v>
       </c>
       <c r="H31">
-        <v>2104.413293426576</v>
+        <v>3986128.676440499</v>
       </c>
       <c r="I31">
-        <v>-302.6352266098703</v>
+        <v>1116094.014240253</v>
       </c>
       <c r="J31">
-        <v>901.116255579301</v>
+        <v>4841808.570289215</v>
       </c>
       <c r="K31">
-        <v>3066.72022857115</v>
+        <v>3987030.094487976</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,31 +1515,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>60.02453279260097</v>
+        <v>1116413.745757937</v>
       </c>
       <c r="G32">
-        <v>389.0942214958147</v>
+        <v>4841501.425620032</v>
       </c>
       <c r="H32">
-        <v>2120.231339175615</v>
+        <v>3986141.976131085</v>
       </c>
       <c r="I32">
-        <v>-234.8204386213131</v>
+        <v>1116153.975300187</v>
       </c>
       <c r="J32">
-        <v>826.6968977134852</v>
+        <v>4841759.918739246</v>
       </c>
       <c r="K32">
-        <v>2910.46846743905</v>
+        <v>3986894.579317783</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,31 +1550,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>58.76182494589413</v>
+        <v>1116412.666563465</v>
       </c>
       <c r="G33">
-        <v>412.0576296287374</v>
+        <v>4841517.93842924</v>
       </c>
       <c r="H33">
-        <v>2135.377800594041</v>
+        <v>3986154.711158758</v>
       </c>
       <c r="I33">
-        <v>-165.3357738669983</v>
+        <v>1116215.412846059</v>
       </c>
       <c r="J33">
-        <v>752.2775398476699</v>
+        <v>4841711.267189277</v>
       </c>
       <c r="K33">
-        <v>2736.749990671544</v>
+        <v>3986743.915486706</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,31 +1585,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>57.57555302596071</v>
+        <v>1116411.652696243</v>
       </c>
       <c r="G34">
-        <v>435.0210377616601</v>
+        <v>4841534.45123845</v>
       </c>
       <c r="H34">
-        <v>2149.907389380469</v>
+        <v>3986166.927524691</v>
       </c>
       <c r="I34">
-        <v>-94.14011316782775</v>
+        <v>1116278.363234976</v>
       </c>
       <c r="J34">
-        <v>677.8581819818542</v>
+        <v>4841662.615639308</v>
       </c>
       <c r="K34">
-        <v>2545.564798268631</v>
+        <v>3986578.102994744</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,31 +1620,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>56.45830783523586</v>
+        <v>1116410.697823874</v>
       </c>
       <c r="G35">
-        <v>457.9844458945829</v>
+        <v>4841550.964047657</v>
       </c>
       <c r="H35">
-        <v>2163.868392323716</v>
+        <v>3986178.665828041</v>
       </c>
       <c r="I35">
-        <v>-21.19132482274731</v>
+        <v>1116342.863719307</v>
       </c>
       <c r="J35">
-        <v>603.4388241160384</v>
+        <v>4841613.964089339</v>
       </c>
       <c r="K35">
-        <v>2336.91289023031</v>
+        <v>3986397.141841896</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,31 +1655,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>55.40364773369205</v>
+        <v>1116409.796440902</v>
       </c>
       <c r="G36">
-        <v>480.9478540275056</v>
+        <v>4841567.476856867</v>
       </c>
       <c r="H36">
-        <v>2177.303639509603</v>
+        <v>3986189.962080016</v>
       </c>
       <c r="I36">
-        <v>53.55376032367626</v>
+        <v>1116408.952468726</v>
       </c>
       <c r="J36">
-        <v>529.019466250223</v>
+        <v>4841565.31253937</v>
       </c>
       <c r="K36">
-        <v>2110.794266556583</v>
+        <v>3986201.032028165</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,31 +1690,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>54.40594208855568</v>
+        <v>1116408.943735014</v>
       </c>
       <c r="G37">
-        <v>503.9112621604283</v>
+        <v>4841583.989666075</v>
       </c>
       <c r="H37">
-        <v>2190.251296749194</v>
+        <v>3986200.848370133</v>
       </c>
       <c r="I37">
-        <v>130.1393744276129</v>
+        <v>1116476.668592798</v>
       </c>
       <c r="J37">
-        <v>454.6001083844073</v>
+        <v>4841516.660989401</v>
       </c>
       <c r="K37">
-        <v>1867.208927247449</v>
+        <v>3985989.773553548</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,31 +1725,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>53.46024459750954</v>
+        <v>1116408.135478768</v>
       </c>
       <c r="G38">
-        <v>526.8746702933511</v>
+        <v>4841600.502475283</v>
       </c>
       <c r="H38">
-        <v>2202.745519185711</v>
+        <v>3986211.353415772</v>
       </c>
       <c r="I38">
-        <v>208.6108388213867</v>
+        <v>1116546.052164128</v>
       </c>
       <c r="J38">
-        <v>380.1807505185919</v>
+        <v>4841468.009439432</v>
       </c>
       <c r="K38">
-        <v>1606.156872302908</v>
+        <v>3985763.366418047</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,31 +1760,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>52.56218997643292</v>
+        <v>1116407.367941301</v>
       </c>
       <c r="G39">
-        <v>549.8380784262738</v>
+        <v>4841617.015284493</v>
       </c>
       <c r="H39">
-        <v>2214.816994278162</v>
+        <v>3986221.503018713</v>
       </c>
       <c r="I39">
-        <v>289.0145908334329</v>
+        <v>1116617.14424207</v>
       </c>
       <c r="J39">
-        <v>305.7613926527762</v>
+        <v>4841419.357889462</v>
       </c>
       <c r="K39">
-        <v>1327.638101722959</v>
+        <v>3985521.810621661</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,31 +1795,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>51.70790908553402</v>
+        <v>1116406.637815788</v>
       </c>
       <c r="G40">
-        <v>572.8014865591964</v>
+        <v>4841633.528093701</v>
       </c>
       <c r="H40">
-        <v>2226.49339589567</v>
+        <v>3986231.32044693</v>
       </c>
       <c r="I40">
-        <v>371.3982112686809</v>
+        <v>1116689.986897028</v>
       </c>
       <c r="J40">
-        <v>231.3420347869604</v>
+        <v>4841370.706339493</v>
       </c>
       <c r="K40">
-        <v>1031.652615507604</v>
+        <v>3985265.10616439</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,31 +1830,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>50.89395872814231</v>
+        <v>1116405.942159442</v>
       </c>
       <c r="G41">
-        <v>595.7648946921191</v>
+        <v>4841650.040902909</v>
       </c>
       <c r="H41">
-        <v>2237.799766432269</v>
+        <v>3986240.826755875</v>
       </c>
       <c r="I41">
-        <v>455.8104525656046</v>
+        <v>1116764.62323535</v>
       </c>
       <c r="J41">
-        <v>156.922676921145</v>
+        <v>4841322.054789525</v>
       </c>
       <c r="K41">
-        <v>718.2004136568423</v>
+        <v>3984993.253046234</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,31 +1865,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>50.11726321656977</v>
+        <v>1116405.278343577</v>
       </c>
       <c r="G42">
-        <v>618.7283028250419</v>
+        <v>4841666.553712118</v>
       </c>
       <c r="H42">
-        <v>2248.758840214074</v>
+        <v>3986250.041060393</v>
       </c>
       <c r="I42">
-        <v>542.3012676466288</v>
+        <v>1116841.09742484</v>
       </c>
       <c r="J42">
-        <v>82.50331905532931</v>
+        <v>4841273.403239557</v>
       </c>
       <c r="K42">
-        <v>387.2814961706727</v>
+        <v>3984706.251267194</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,31 +1900,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>49.37506544355787</v>
+        <v>1116404.644011783</v>
       </c>
       <c r="G43">
-        <v>641.6917109579647</v>
+        <v>4841683.066521327</v>
       </c>
       <c r="H43">
-        <v>2259.391318700645</v>
+        <v>3986258.980766112</v>
       </c>
       <c r="I43">
-        <v>630.9218394789317</v>
+        <v>1116919.45472089</v>
       </c>
       <c r="J43">
-        <v>8.083961189513582</v>
+        <v>4841224.751689587</v>
       </c>
       <c r="K43">
-        <v>38.89586304909639</v>
+        <v>3984404.100827269</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,31 +1935,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>48.66488568480327</v>
+        <v>1116404.037044723</v>
       </c>
       <c r="G44">
-        <v>664.6551190908873</v>
+        <v>4841699.579330535</v>
       </c>
       <c r="H44">
-        <v>2269.716105853958</v>
+        <v>3986267.661767335</v>
       </c>
       <c r="I44">
-        <v>721.7246113631732</v>
+        <v>1116999.741493269</v>
       </c>
       <c r="J44">
-        <v>-66.3353966763018</v>
+        <v>4841176.100139618</v>
       </c>
       <c r="K44">
-        <v>-326.9564857078859</v>
+        <v>3984086.801726459</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,31 +1970,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>47.98448672952853</v>
+        <v>1116403.455530327</v>
       </c>
       <c r="G45">
-        <v>687.6185272238099</v>
+        <v>4841716.092139744</v>
       </c>
       <c r="H45">
-        <v>2279.750510399157</v>
+        <v>3986276.098617107</v>
       </c>
       <c r="I45">
-        <v>814.7633179680462</v>
+        <v>1117082.005253555</v>
       </c>
       <c r="J45">
-        <v>-140.7547545421175</v>
+        <v>4841127.448589649</v>
       </c>
       <c r="K45">
-        <v>-710.2755501002762</v>
+        <v>3983754.353964764</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,31 +2005,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>47.33184422181363</v>
+        <v>1116402.897738445</v>
       </c>
       <c r="G46">
-        <v>710.5819353567327</v>
+        <v>4841732.604948952</v>
       </c>
       <c r="H46">
-        <v>2289.51042041312</v>
+        <v>3986284.304674</v>
       </c>
       <c r="I46">
-        <v>910.0930171290242</v>
+        <v>1117166.294683256</v>
       </c>
       <c r="J46">
-        <v>-215.1741124079333</v>
+        <v>4841078.797039679</v>
       </c>
       <c r="K46">
-        <v>-1111.061330128074</v>
+        <v>3983406.757542184</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,31 +2040,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>46.70512131696061</v>
+        <v>1116402.362099187</v>
       </c>
       <c r="G47">
-        <v>733.5453434896555</v>
+        <v>4841749.11775816</v>
       </c>
       <c r="H47">
-        <v>2299.010454663228</v>
+        <v>3986292.292229358</v>
       </c>
       <c r="I47">
-        <v>1007.770122430126</v>
+        <v>1117252.659662619</v>
       </c>
       <c r="J47">
-        <v>-289.593470273749</v>
+        <v>4841030.14548971</v>
       </c>
       <c r="K47">
-        <v>-1529.313825791279</v>
+        <v>3983044.01245872</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,31 +2075,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>46.10264693021279</v>
+        <v>1116401.847184333</v>
       </c>
       <c r="G48">
-        <v>756.5087516225781</v>
+        <v>4841765.63056737</v>
       </c>
       <c r="H48">
-        <v>2308.264094315541</v>
+        <v>3986300.072618044</v>
       </c>
       <c r="I48">
-        <v>1107.852436587978</v>
+        <v>1117341.151300145</v>
       </c>
       <c r="J48">
-        <v>-364.012828139564</v>
+        <v>4840981.493939742</v>
       </c>
       <c r="K48">
-        <v>-1965.033037089887</v>
+        <v>3982666.118714371</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,31 +2110,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>45.52289699127385</v>
+        <v>1116401.351691309</v>
       </c>
       <c r="G49">
-        <v>779.4721597555009</v>
+        <v>4841782.143376578</v>
       </c>
       <c r="H49">
-        <v>2317.283797990894</v>
+        <v>3986307.656315168</v>
       </c>
       <c r="I49">
-        <v>1210.399185657927</v>
+        <v>1117431.821962834</v>
       </c>
       <c r="J49">
-        <v>-438.4321860053798</v>
+        <v>4840932.842389773</v>
       </c>
       <c r="K49">
-        <v>-2418.218964023905</v>
+        <v>3982273.076309137</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,31 +2145,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>44.96447822584897</v>
+        <v>1116400.874429331</v>
       </c>
       <c r="G50">
-        <v>802.4355678884236</v>
+        <v>4841798.656185786</v>
       </c>
       <c r="H50">
-        <v>2326.081102633133</v>
+        <v>3986315.053020905</v>
       </c>
       <c r="I50">
-        <v>1315.471054082444</v>
+        <v>1117524.725307176</v>
       </c>
       <c r="J50">
-        <v>-512.8515438711955</v>
+        <v>4840884.190839803</v>
       </c>
       <c r="K50">
-        <v>-2888.871606593331</v>
+        <v>3981864.885243018</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,31 +2180,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>44.42611407130647</v>
+        <v>1116400.414307363</v>
       </c>
       <c r="G51">
-        <v>825.3989760213462</v>
+        <v>4841815.168994996</v>
       </c>
       <c r="H51">
-        <v>2334.666712238518</v>
+        <v>3986322.271735091</v>
       </c>
       <c r="I51">
-        <v>1423.130220602568</v>
+        <v>1117619.916310903</v>
       </c>
       <c r="J51">
-        <v>-587.2709017370113</v>
+        <v>4840835.539289834</v>
       </c>
       <c r="K51">
-        <v>-3376.990964798164</v>
+        <v>3981441.545516015</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,31 +2215,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>43.90663240238894</v>
+        <v>1116399.970323629</v>
       </c>
       <c r="G52">
-        <v>848.3623841542691</v>
+        <v>4841831.681804203</v>
       </c>
       <c r="H52">
-        <v>2343.050576158163</v>
+        <v>3986329.320823065</v>
       </c>
       <c r="I52">
-        <v>1533.440395053635</v>
+        <v>1117717.451305522</v>
       </c>
       <c r="J52">
-        <v>-661.6902596028269</v>
+        <v>4840786.887739865</v>
       </c>
       <c r="K52">
-        <v>-3882.577038638402</v>
+        <v>3981003.057128126</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,31 +2250,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>43.40495479837682</v>
+        <v>1116399.541556438</v>
       </c>
       <c r="G53">
-        <v>871.3257922871917</v>
+        <v>4841848.194613412</v>
       </c>
       <c r="H53">
-        <v>2351.241958410188</v>
+        <v>3986336.208073939</v>
       </c>
       <c r="I53">
-        <v>1646.466856067056</v>
+        <v>1117817.388009654</v>
       </c>
       <c r="J53">
-        <v>-736.109617468642</v>
+        <v>4840738.236189896</v>
       </c>
       <c r="K53">
-        <v>-4405.629828114045</v>
+        <v>3980549.420079353</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,31 +2285,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>42.92008712806662</v>
+        <v>1116399.127156139</v>
       </c>
       <c r="G54">
-        <v>894.2892004201144</v>
+        <v>4841864.707422622</v>
       </c>
       <c r="H54">
-        <v>2359.249499212501</v>
+        <v>3986342.940752345</v>
       </c>
       <c r="I54">
-        <v>1762.276489700498</v>
+        <v>1117919.785563185</v>
       </c>
       <c r="J54">
-        <v>-810.5289753344578</v>
+        <v>4840689.584639926</v>
       </c>
       <c r="K54">
-        <v>-4946.149333225098</v>
+        <v>3980080.634369696</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2323,34 +2317,34 @@
         <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>167.0381576824164</v>
+        <v>1116576.951973472</v>
       </c>
       <c r="G55">
-        <v>-100.3843421126406</v>
+        <v>4841114.398764683</v>
       </c>
       <c r="H55">
-        <v>817.1514290981612</v>
+        <v>3985228.268589451</v>
       </c>
       <c r="I55">
-        <v>-1656.669290058696</v>
+        <v>1114864.800271701</v>
       </c>
       <c r="J55">
-        <v>2307.519481722031</v>
+        <v>4843218.846388404</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984370.527462586</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2358,34 +2352,34 @@
         <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>167.0381576824164</v>
+        <v>1116576.951973472</v>
       </c>
       <c r="G56">
-        <v>-100.3843421126406</v>
+        <v>4841114.398764683</v>
       </c>
       <c r="H56">
-        <v>817.1514290981612</v>
+        <v>3985228.268589451</v>
       </c>
       <c r="I56">
-        <v>-1623.962226997797</v>
+        <v>1114894.414359617</v>
       </c>
       <c r="J56">
-        <v>2251.387237887201</v>
+        <v>4843170.194844653</v>
       </c>
       <c r="K56">
-        <v>287.8962737513754</v>
+        <v>3984674.323470291</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2393,34 +2387,34 @@
         <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>167.0381576824164</v>
+        <v>1116576.951973472</v>
       </c>
       <c r="G57">
-        <v>-100.3843421126406</v>
+        <v>4841114.398764683</v>
       </c>
       <c r="H57">
-        <v>817.1514290981612</v>
+        <v>3985228.268589451</v>
       </c>
       <c r="I57">
-        <v>-1590.449782598971</v>
+        <v>1114924.757667203</v>
       </c>
       <c r="J57">
-        <v>2195.254994052371</v>
+        <v>4843121.5433009</v>
       </c>
       <c r="K57">
-        <v>561.4367196243643</v>
+        <v>3984962.970816501</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2428,34 +2422,34 @@
         <v>43</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>167.0381576824164</v>
+        <v>1116576.951973472</v>
       </c>
       <c r="G58">
-        <v>-100.3843421126406</v>
+        <v>4841114.398764683</v>
       </c>
       <c r="H58">
-        <v>817.1514290981612</v>
+        <v>3985228.268589451</v>
       </c>
       <c r="I58">
-        <v>-1556.112125087706</v>
+        <v>1114955.848150824</v>
       </c>
       <c r="J58">
-        <v>2139.122750217542</v>
+        <v>4843072.891757147</v>
       </c>
       <c r="K58">
-        <v>820.6213376189686</v>
+        <v>3985236.469501216</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2463,34 +2457,34 @@
         <v>43</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>167.0381576824164</v>
+        <v>1116576.951973472</v>
       </c>
       <c r="G59">
-        <v>-100.3843421126406</v>
+        <v>4841114.398764683</v>
       </c>
       <c r="H59">
-        <v>817.1514290981612</v>
+        <v>3985228.268589451</v>
       </c>
       <c r="I59">
-        <v>-1520.928934350293</v>
+        <v>1114987.704209001</v>
       </c>
       <c r="J59">
-        <v>2082.990506382712</v>
+        <v>4843024.240213395</v>
       </c>
       <c r="K59">
-        <v>1065.450127735187</v>
+        <v>3985494.819524436</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2498,34 +2492,34 @@
         <v>43</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>167.0381576824164</v>
+        <v>1116576.951973472</v>
       </c>
       <c r="G60">
-        <v>-100.3843421126406</v>
+        <v>4841114.398764683</v>
       </c>
       <c r="H60">
-        <v>817.1514290981612</v>
+        <v>3985228.268589451</v>
       </c>
       <c r="I60">
-        <v>-1484.879389908912</v>
+        <v>1115020.344693303</v>
       </c>
       <c r="J60">
-        <v>2026.858262547882</v>
+        <v>4842975.588669643</v>
       </c>
       <c r="K60">
-        <v>1295.923089973021</v>
+        <v>3985738.020886161</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2533,34 +2527,34 @@
         <v>43</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>167.0381576824164</v>
+        <v>1116576.951973472</v>
       </c>
       <c r="G61">
-        <v>-100.3843421126406</v>
+        <v>4841114.398764683</v>
       </c>
       <c r="H61">
-        <v>817.1514290981612</v>
+        <v>3985228.268589451</v>
       </c>
       <c r="I61">
-        <v>-1447.942158600635</v>
+        <v>1115053.788919503</v>
       </c>
       <c r="J61">
-        <v>1970.726018713052</v>
+        <v>4842926.93712589</v>
       </c>
       <c r="K61">
-        <v>1512.040224332469</v>
+        <v>3985966.073586391</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2568,34 +2562,34 @@
         <v>43</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>167.0381576824164</v>
+        <v>1116576.951973472</v>
       </c>
       <c r="G62">
-        <v>-100.3843421126406</v>
+        <v>4841114.398764683</v>
       </c>
       <c r="H62">
-        <v>817.1514290981612</v>
+        <v>3985228.268589451</v>
       </c>
       <c r="I62">
-        <v>-1410.095381953021</v>
+        <v>1115088.056679004</v>
       </c>
       <c r="J62">
-        <v>1914.593774878222</v>
+        <v>4842878.285582137</v>
       </c>
       <c r="K62">
-        <v>1713.801530813532</v>
+        <v>3986178.977625126</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2603,34 +2597,34 @@
         <v>43</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>167.0381576824164</v>
+        <v>1116576.951973472</v>
       </c>
       <c r="G63">
-        <v>-83.80806159651007</v>
+        <v>4841130.911549223</v>
       </c>
       <c r="H63">
-        <v>817.1514290981612</v>
+        <v>3985228.268589451</v>
       </c>
       <c r="I63">
-        <v>-1371.316663248857</v>
+        <v>1115123.168250558</v>
       </c>
       <c r="J63">
-        <v>1858.461531043393</v>
+        <v>4842829.634038385</v>
       </c>
       <c r="K63">
-        <v>1901.207009416209</v>
+        <v>3986376.733002366</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2638,34 +2632,34 @@
         <v>43</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>129.6410964414906</v>
+        <v>1116528.271477361</v>
       </c>
       <c r="G64">
-        <v>-67.23178108037959</v>
+        <v>4841147.424333762</v>
       </c>
       <c r="H64">
-        <v>1006.725061991358</v>
+        <v>3985427.522993237</v>
       </c>
       <c r="I64">
-        <v>-1331.583054272369</v>
+        <v>1115159.144412259</v>
       </c>
       <c r="J64">
-        <v>1802.329287208563</v>
+        <v>4842780.982494633</v>
       </c>
       <c r="K64">
-        <v>2074.2566601405</v>
+        <v>3986559.33971811</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2673,34 +2667,34 @@
         <v>43</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>107.6721990015535</v>
+        <v>1116499.674127973</v>
       </c>
       <c r="G65">
-        <v>-50.65550056424912</v>
+        <v>4841163.937118302</v>
       </c>
       <c r="H65">
-        <v>1119.644812906201</v>
+        <v>3985546.209106389</v>
       </c>
       <c r="I65">
-        <v>-1290.871041729085</v>
+        <v>1115196.006453845</v>
       </c>
       <c r="J65">
-        <v>1746.197043373733</v>
+        <v>4842732.330950879</v>
       </c>
       <c r="K65">
-        <v>2232.950482986406</v>
+        <v>3986726.79777236</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2708,34 +2702,34 @@
         <v>43</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>93.80381921760363</v>
+        <v>1116481.621383032</v>
       </c>
       <c r="G66">
-        <v>-34.07922004811863</v>
+        <v>4841180.449902843</v>
       </c>
       <c r="H66">
-        <v>1200.340926930839</v>
+        <v>3985631.026049772</v>
       </c>
       <c r="I66">
-        <v>-1249.156533331287</v>
+        <v>1115233.776189292</v>
       </c>
       <c r="J66">
-        <v>1690.064799538904</v>
+        <v>4842683.679407127</v>
       </c>
       <c r="K66">
-        <v>2377.288477953928</v>
+        <v>3986879.107165114</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2743,34 +2737,34 @@
         <v>43</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>84.13206745133554</v>
+        <v>1116469.03147199</v>
       </c>
       <c r="G67">
-        <v>-17.50293953198815</v>
+        <v>4841196.962687382</v>
       </c>
       <c r="H67">
-        <v>1263.17894768885</v>
+        <v>3985697.072958142</v>
       </c>
       <c r="I67">
-        <v>-1206.414843540838</v>
+        <v>1115272.475969727</v>
       </c>
       <c r="J67">
-        <v>1633.932555704074</v>
+        <v>4842635.027863375</v>
       </c>
       <c r="K67">
-        <v>2507.270645043064</v>
+        <v>3987016.267896373</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2778,34 +2772,34 @@
         <v>43</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>76.91665099778075</v>
+        <v>1116459.639021328</v>
       </c>
       <c r="G68">
-        <v>-0.9266590158576758</v>
+        <v>4841213.475471922</v>
       </c>
       <c r="H68">
-        <v>1314.648160850839</v>
+        <v>3985751.170499164</v>
       </c>
       <c r="I68">
-        <v>-1162.620678960932</v>
+        <v>1115312.128696652</v>
       </c>
       <c r="J68">
-        <v>1577.800311869244</v>
+        <v>4842586.376319623</v>
       </c>
       <c r="K68">
-        <v>2622.896984253814</v>
+        <v>3987138.279966137</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2813,34 +2807,34 @@
         <v>43</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>71.27520293413643</v>
+        <v>1116452.295436528</v>
       </c>
       <c r="G69">
-        <v>15.64962150027281</v>
+        <v>4841229.988256461</v>
       </c>
       <c r="H69">
-        <v>1358.238827328579</v>
+        <v>3985796.987167479</v>
       </c>
       <c r="I69">
-        <v>-1117.748123368139</v>
+        <v>1115352.757835498</v>
       </c>
       <c r="J69">
-        <v>1521.668068034414</v>
+        <v>4842537.724775869</v>
       </c>
       <c r="K69">
-        <v>2724.167495586179</v>
+        <v>3987245.143374407</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2848,34 +2842,34 @@
         <v>43</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>66.71086068334559</v>
+        <v>1116446.35394172</v>
       </c>
       <c r="G70">
-        <v>32.2259020164033</v>
+        <v>4841246.501041001</v>
       </c>
       <c r="H70">
-        <v>1396.045791454502</v>
+        <v>3985836.724782784</v>
       </c>
       <c r="I70">
-        <v>-1071.770622375868</v>
+        <v>1115394.387429509</v>
       </c>
       <c r="J70">
-        <v>1465.535824199585</v>
+        <v>4842489.073232117</v>
       </c>
       <c r="K70">
-        <v>2811.082179040158</v>
+        <v>3987336.85812118</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2883,34 +2877,34 @@
         <v>43</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>62.92083024893436</v>
+        <v>1116441.420383956</v>
       </c>
       <c r="G71">
-        <v>48.80218253253376</v>
+        <v>4841263.013825541</v>
       </c>
       <c r="H71">
-        <v>1429.425599638764</v>
+        <v>3985871.809164914</v>
       </c>
       <c r="I71">
-        <v>-1024.660967720187</v>
+        <v>1115437.042113975</v>
       </c>
       <c r="J71">
-        <v>1409.403580364755</v>
+        <v>4842440.421688365</v>
       </c>
       <c r="K71">
-        <v>2883.641034615753</v>
+        <v>3987413.424206459</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2918,34 +2912,34 @@
         <v>43</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>59.70906462012917</v>
+        <v>1116437.239564955</v>
       </c>
       <c r="G72">
-        <v>65.37846304866426</v>
+        <v>4841279.52661008</v>
       </c>
       <c r="H72">
-        <v>1459.307244945052</v>
+        <v>3985903.216746912</v>
       </c>
       <c r="I72">
-        <v>-976.3912811586973</v>
+        <v>1115480.747130804</v>
       </c>
       <c r="J72">
-        <v>1353.271336529925</v>
+        <v>4842391.770144613</v>
       </c>
       <c r="K72">
-        <v>2941.844062312961</v>
+        <v>3987474.841630243</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2953,34 +2947,34 @@
         <v>43</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>56.9424418719447</v>
+        <v>1116433.638197269</v>
       </c>
       <c r="G73">
-        <v>81.95474356479474</v>
+        <v>4841296.039394621</v>
       </c>
       <c r="H73">
-        <v>1486.354879825408</v>
+        <v>3985931.645596851</v>
       </c>
       <c r="I73">
-        <v>-926.9329979729284</v>
+        <v>1115525.528343465</v>
       </c>
       <c r="J73">
-        <v>1297.139092695096</v>
+        <v>4842343.118600859</v>
       </c>
       <c r="K73">
-        <v>2985.691262131785</v>
+        <v>3987521.110392532</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2988,34 +2982,34 @@
         <v>43</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>54.52703725658385</v>
+        <v>1116430.494017189</v>
       </c>
       <c r="G74">
-        <v>98.53102408092521</v>
+        <v>4841312.552179161</v>
       </c>
       <c r="H74">
-        <v>1511.059805931534</v>
+        <v>3985957.612105203</v>
       </c>
       <c r="I74">
-        <v>-876.2568500644965</v>
+        <v>1115571.412252289</v>
       </c>
       <c r="J74">
-        <v>1241.006848860266</v>
+        <v>4842294.467057107</v>
       </c>
       <c r="K74">
-        <v>3015.182634072223</v>
+        <v>3987552.230493326</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3023,34 +3017,34 @@
         <v>43</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>52.3944632722419</v>
+        <v>1116427.71800335</v>
       </c>
       <c r="G75">
-        <v>115.1073045970557</v>
+        <v>4841329.0649637</v>
       </c>
       <c r="H75">
-        <v>1533.795696043177</v>
+        <v>3985981.50902673</v>
       </c>
       <c r="I75">
-        <v>-824.3328486350201</v>
+        <v>1115618.426010156</v>
       </c>
       <c r="J75">
-        <v>1184.874605025436</v>
+        <v>4842245.815513355</v>
       </c>
       <c r="K75">
-        <v>3030.318178134276</v>
+        <v>3987568.201932624</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3058,34 +3052,34 @@
         <v>43</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>50.49360001170015</v>
+        <v>1116425.243611954</v>
       </c>
       <c r="G76">
-        <v>131.6835851131862</v>
+        <v>4841345.57774824</v>
       </c>
       <c r="H76">
-        <v>1554.85338516892</v>
+        <v>3986003.642048225</v>
       </c>
       <c r="I76">
-        <v>-771.1302664395484</v>
+        <v>1115666.597438558</v>
       </c>
       <c r="J76">
-        <v>1128.742361190606</v>
+        <v>4842197.163969602</v>
       </c>
       <c r="K76">
-        <v>3031.097894317943</v>
+        <v>3987569.024710428</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3093,34 +3087,34 @@
         <v>43</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>48.78537417067083</v>
+        <v>1116423.019980507</v>
       </c>
       <c r="G77">
-        <v>148.2598656293167</v>
+        <v>4841362.09053278</v>
       </c>
       <c r="H77">
-        <v>1574.463679873642</v>
+        <v>3986024.253762628</v>
       </c>
       <c r="I77">
-        <v>-716.6176196029916</v>
+        <v>1115715.955044068</v>
       </c>
       <c r="J77">
-        <v>1072.610117355776</v>
+        <v>4842148.512425849</v>
       </c>
       <c r="K77">
-        <v>3017.521782623225</v>
+        <v>3987554.698826736</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3128,34 +3122,34 @@
         <v>43</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>47.23934363027278</v>
+        <v>1116421.007481898</v>
       </c>
       <c r="G78">
-        <v>164.8361461454471</v>
+        <v>4841378.603317319</v>
       </c>
       <c r="H78">
-        <v>1592.81282003659</v>
+        <v>3986043.539920346</v>
       </c>
       <c r="I78">
-        <v>-660.7626489887996</v>
+        <v>1115766.528035206</v>
       </c>
       <c r="J78">
-        <v>1016.477873520947</v>
+        <v>4842099.860882097</v>
       </c>
       <c r="K78">
-        <v>2989.589843050121</v>
+        <v>3987525.224281549</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3163,34 +3157,34 @@
         <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>45.83139414611049</v>
+        <v>1116419.174726139</v>
       </c>
       <c r="G79">
-        <v>181.4124266615777</v>
+        <v>4841395.116101859</v>
       </c>
       <c r="H79">
-        <v>1610.053262182012</v>
+        <v>3986061.660763252</v>
       </c>
       <c r="I79">
-        <v>-603.532301108864</v>
+        <v>1115818.346339724</v>
       </c>
       <c r="J79">
-        <v>960.3456296861169</v>
+        <v>4842051.209338345</v>
       </c>
       <c r="K79">
-        <v>2947.302075598632</v>
+        <v>3987480.601074867</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3198,34 +3192,34 @@
         <v>43</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>44.54214452699007</v>
+        <v>1116417.496484347</v>
       </c>
       <c r="G80">
-        <v>197.9887071777081</v>
+        <v>4841411.628886399</v>
       </c>
       <c r="H80">
-        <v>1626.311386600033</v>
+        <v>3986078.749125373</v>
       </c>
       <c r="I80">
-        <v>-544.8927085633399</v>
+        <v>1115871.440622319</v>
       </c>
       <c r="J80">
-        <v>904.2133858512871</v>
+        <v>4842002.557794591</v>
       </c>
       <c r="K80">
-        <v>2890.658480268758</v>
+        <v>3987420.829206691</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3233,34 +3227,34 @@
         <v>43</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>43.35581661513604</v>
+        <v>1116415.952217782</v>
       </c>
       <c r="G81">
-        <v>214.5649876938386</v>
+        <v>4841428.141670939</v>
       </c>
       <c r="H81">
-        <v>1641.693124734481</v>
+        <v>3986094.916347652</v>
       </c>
       <c r="I81">
-        <v>-484.8091699988182</v>
+        <v>1115925.842302776</v>
       </c>
       <c r="J81">
-        <v>848.0811420164575</v>
+        <v>4841953.906250839</v>
       </c>
       <c r="K81">
-        <v>2819.659057060499</v>
+        <v>3987345.908677018</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3268,34 +3262,34 @@
         <v>43</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>42.2594181541735</v>
+        <v>1116414.525014166</v>
       </c>
       <c r="G82">
-        <v>231.1412682099691</v>
+        <v>4841444.654455479</v>
       </c>
       <c r="H82">
-        <v>1656.288145940148</v>
+        <v>3986110.2566785</v>
       </c>
       <c r="I82">
-        <v>-423.2461295729865</v>
+        <v>1115981.583574567</v>
       </c>
       <c r="J82">
-        <v>791.9488981816277</v>
+        <v>4841905.254707087</v>
       </c>
       <c r="K82">
-        <v>2734.303805973853</v>
+        <v>3987255.839485852</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3303,34 +3297,34 @@
         <v>43</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>41.24214113673476</v>
+        <v>1116413.200804502</v>
       </c>
       <c r="G83">
-        <v>247.7175487260995</v>
+        <v>4841461.167240018</v>
       </c>
       <c r="H83">
-        <v>1670.173024703708</v>
+        <v>3986124.850602757</v>
       </c>
       <c r="I83">
-        <v>-360.1671559136277</v>
+        <v>1116038.697423894</v>
       </c>
       <c r="J83">
-        <v>735.8166543467978</v>
+        <v>4841856.603163335</v>
       </c>
       <c r="K83">
-        <v>2634.592727008823</v>
+        <v>3987150.62163319</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3338,34 +3332,34 @@
         <v>43</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>40.29491159218842</v>
+        <v>1116411.967777023</v>
       </c>
       <c r="G84">
-        <v>264.29382924223</v>
+        <v>4841477.680024558</v>
       </c>
       <c r="H84">
-        <v>1683.413672469323</v>
+        <v>3986138.767397704</v>
       </c>
       <c r="I84">
-        <v>-295.5349205594989</v>
+        <v>1116097.217649217</v>
       </c>
       <c r="J84">
-        <v>679.6844105119682</v>
+        <v>4841807.951619581</v>
       </c>
       <c r="K84">
-        <v>2520.525820165407</v>
+        <v>3987030.255119032</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3373,34 +3367,34 @@
         <v>43</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>39.41004776227697</v>
+        <v>1116410.815932231</v>
       </c>
       <c r="G85">
-        <v>280.8701097583605</v>
+        <v>4841494.192809098</v>
       </c>
       <c r="H85">
-        <v>1696.06722990923</v>
+        <v>3986152.067121959</v>
       </c>
       <c r="I85">
-        <v>-229.3111758703409</v>
+        <v>1116157.178881251</v>
       </c>
       <c r="J85">
-        <v>623.5521666771384</v>
+        <v>4841759.300075829</v>
       </c>
       <c r="K85">
-        <v>2392.103085443606</v>
+        <v>3986894.73994338</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3408,34 +3402,34 @@
         <v>43</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>38.58099713525313</v>
+        <v>1116409.736740591</v>
       </c>
       <c r="G86">
-        <v>297.446390274491</v>
+        <v>4841510.705593637</v>
       </c>
       <c r="H86">
-        <v>1708.183557210979</v>
+        <v>3986164.802181871</v>
       </c>
       <c r="I86">
-        <v>-161.4567323929401</v>
+        <v>1116218.616603461</v>
       </c>
       <c r="J86">
-        <v>567.4199228423088</v>
+        <v>4841710.648532077</v>
       </c>
       <c r="K86">
-        <v>2249.32452284342</v>
+        <v>3986744.076106232</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3443,34 +3437,34 @@
         <v>43</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>37.80213171392349</v>
+        <v>1116408.72287603</v>
       </c>
       <c r="G87">
-        <v>314.0226707906215</v>
+        <v>4841527.218378178</v>
       </c>
       <c r="H87">
-        <v>1719.806420692612</v>
+        <v>3986177.018578729</v>
       </c>
       <c r="I87">
-        <v>-91.93143566985145</v>
+        <v>1116281.567173058</v>
       </c>
       <c r="J87">
-        <v>511.287679007479</v>
+        <v>4841661.996988324</v>
       </c>
       <c r="K87">
-        <v>2092.190132364848</v>
+        <v>3986578.26360759</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3478,34 +3472,34 @@
         <v>43</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>37.06858687350337</v>
+        <v>1116407.768006166</v>
       </c>
       <c r="G88">
-        <v>330.598951306752</v>
+        <v>4841543.731162717</v>
       </c>
       <c r="H88">
-        <v>1730.974447101425</v>
+        <v>3986188.756911796</v>
       </c>
       <c r="I88">
-        <v>-20.69414247705724</v>
+        <v>1116346.067842518</v>
       </c>
       <c r="J88">
-        <v>455.1554351726491</v>
+        <v>4841613.345444571</v>
       </c>
       <c r="K88">
-        <v>1920.69991400789</v>
+        <v>3986397.302447452</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3513,34 +3507,34 @@
         <v>43</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>36.37613325427366</v>
+        <v>1116406.86662556</v>
       </c>
       <c r="G89">
-        <v>347.1752318228824</v>
+        <v>4841560.243947257</v>
       </c>
       <c r="H89">
-        <v>1741.721898125601</v>
+        <v>3986200.053192367</v>
       </c>
       <c r="I89">
-        <v>52.2973035235017</v>
+        <v>1116412.156781624</v>
       </c>
       <c r="J89">
-        <v>399.0231913378195</v>
+        <v>4841564.693900819</v>
       </c>
       <c r="K89">
-        <v>1734.853867772548</v>
+        <v>3986201.19262582</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3548,34 +3542,34 @@
         <v>43</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>35.7210739760386</v>
+        <v>1116406.01392191</v>
       </c>
       <c r="G90">
-        <v>363.7515123390129</v>
+        <v>4841576.756731797</v>
       </c>
       <c r="H90">
-        <v>1752.079304292754</v>
+        <v>3986210.939510043</v>
       </c>
       <c r="I90">
-        <v>127.0860967309253</v>
+        <v>1116479.873100055</v>
       </c>
       <c r="J90">
-        <v>342.8909475029897</v>
+        <v>4841516.042357067</v>
       </c>
       <c r="K90">
-        <v>1534.65199365882</v>
+        <v>3985989.934142692</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3583,34 +3577,34 @@
         <v>43</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>35.10016146648904</v>
+        <v>1116405.205667785</v>
       </c>
       <c r="G91">
-        <v>380.3277928551434</v>
+        <v>4841593.269516336</v>
       </c>
       <c r="H91">
-        <v>1762.073987819134</v>
+        <v>3986221.444582276</v>
       </c>
       <c r="I91">
-        <v>203.7164951666542</v>
+        <v>1116549.25687053</v>
       </c>
       <c r="J91">
-        <v>286.7587036681601</v>
+        <v>4841467.390813314</v>
       </c>
       <c r="K91">
-        <v>1320.094291666707</v>
+        <v>3985763.526998069</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3618,34 +3612,34 @@
         <v>43</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>34.51052962991894</v>
+        <v>1116404.438132332</v>
       </c>
       <c r="G92">
-        <v>396.9040733712739</v>
+        <v>4841609.782300876</v>
       </c>
       <c r="H92">
-        <v>1771.730496966354</v>
+        <v>3986231.594210911</v>
       </c>
       <c r="I92">
-        <v>282.2338466651883</v>
+        <v>1116620.34915252</v>
       </c>
       <c r="J92">
-        <v>230.6264598333302</v>
+        <v>4841418.739269561</v>
       </c>
       <c r="K92">
-        <v>1091.180761796207</v>
+        <v>3985521.97119195</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3653,34 +3647,34 @@
         <v>43</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>33.94963812195745</v>
+        <v>1116403.708008735</v>
       </c>
       <c r="G93">
-        <v>413.4803538874044</v>
+        <v>4841626.295085416</v>
       </c>
       <c r="H93">
-        <v>1781.070969291612</v>
+        <v>3986241.411663981</v>
       </c>
       <c r="I93">
-        <v>362.6846157097357</v>
+        <v>1116693.192016551</v>
       </c>
       <c r="J93">
-        <v>174.4942159985004</v>
+        <v>4841370.087725809</v>
       </c>
       <c r="K93">
-        <v>847.911404047323</v>
+        <v>3985265.266724337</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3688,34 +3682,34 @@
         <v>43</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>33.4152262578657</v>
+        <v>1116403.012354216</v>
       </c>
       <c r="G94">
-        <v>430.0566344035349</v>
+        <v>4841642.807869956</v>
       </c>
       <c r="H94">
-        <v>1790.115437318291</v>
+        <v>3986250.91799699</v>
       </c>
       <c r="I94">
-        <v>445.1164109286534</v>
+        <v>1116767.828569094</v>
       </c>
       <c r="J94">
-        <v>118.3619721636708</v>
+        <v>4841321.436182057</v>
       </c>
       <c r="K94">
-        <v>590.2862184200538</v>
+        <v>3984993.413595229</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3723,34 +3717,34 @@
         <v>43</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>32.90527464668727</v>
+        <v>1116402.348540092</v>
       </c>
       <c r="G95">
-        <v>446.6329149196653</v>
+        <v>4841659.320654496</v>
       </c>
       <c r="H95">
-        <v>1798.88208724372</v>
+        <v>3986260.132324835</v>
       </c>
       <c r="I95">
-        <v>529.5780132689778</v>
+        <v>1116844.30297808</v>
       </c>
       <c r="J95">
-        <v>62.22972832884098</v>
+        <v>4841272.784638304</v>
       </c>
       <c r="K95">
-        <v>318.3052049143985</v>
+        <v>3984706.411804626</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3758,34 +3752,34 @@
         <v>43</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>32.41797306643974</v>
+        <v>1116401.714209963</v>
       </c>
       <c r="G96">
-        <v>463.2091954357958</v>
+        <v>4841675.833439036</v>
       </c>
       <c r="H96">
-        <v>1807.387479084971</v>
+        <v>3986269.072053185</v>
       </c>
       <c r="I96">
-        <v>616.1194048636825</v>
+        <v>1116922.660499031</v>
       </c>
       <c r="J96">
-        <v>6.097484494011142</v>
+        <v>4841224.133094551</v>
       </c>
       <c r="K96">
-        <v>31.96836353035798</v>
+        <v>3984404.261352527</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3793,34 +3787,34 @@
         <v>43</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>31.95169341526731</v>
+        <v>1116401.107244496</v>
       </c>
       <c r="G97">
-        <v>479.7854759519263</v>
+        <v>4841692.346223575</v>
       </c>
       <c r="H97">
-        <v>1815.64673496095</v>
+        <v>3986277.753076385</v>
       </c>
       <c r="I97">
-        <v>704.7917986097857</v>
+        <v>1117002.947501848</v>
       </c>
       <c r="J97">
-        <v>-50.03475934081844</v>
+        <v>4841175.481550799</v>
       </c>
       <c r="K97">
-        <v>-268.7243057320671</v>
+        <v>3984086.962238934</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3828,34 +3822,34 @@
         <v>43</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>31.50496681737056</v>
+        <v>1116400.525731626</v>
       </c>
       <c r="G98">
-        <v>496.3617564680567</v>
+        <v>4841708.859008115</v>
       </c>
       <c r="H98">
-        <v>1823.673700889763</v>
+        <v>3986286.189947514</v>
       </c>
       <c r="I98">
-        <v>795.6476684747807</v>
+        <v>1117085.211498247</v>
       </c>
       <c r="J98">
-        <v>-106.1670031756483</v>
+        <v>4841126.830007046</v>
       </c>
       <c r="K98">
-        <v>-583.7728028728784</v>
+        <v>3983754.514463846</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3863,34 +3857,34 @@
         <v>43</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>31.07646415014269</v>
+        <v>1116399.967941208</v>
       </c>
       <c r="G99">
-        <v>512.9380369841873</v>
+        <v>4841725.371792655</v>
       </c>
       <c r="H99">
-        <v>1831.481086449861</v>
+        <v>3986294.39602518</v>
       </c>
       <c r="I99">
-        <v>888.7407805493343</v>
+        <v>1117169.501169876</v>
       </c>
       <c r="J99">
-        <v>-162.2992470104781</v>
+        <v>4841078.178463293</v>
       </c>
       <c r="K99">
-        <v>-913.1771278920759</v>
+        <v>3983406.918027262</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3898,34 +3892,34 @@
         <v>43</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>30.66497940440861</v>
+        <v>1116399.432303356</v>
       </c>
       <c r="G100">
-        <v>529.5143175003177</v>
+        <v>4841741.884577194</v>
       </c>
       <c r="H100">
-        <v>1839.080585842643</v>
+        <v>3986302.38360076</v>
       </c>
       <c r="I100">
-        <v>984.1262248646309</v>
+        <v>1117255.866397123</v>
       </c>
       <c r="J100">
-        <v>-218.431490845308</v>
+        <v>4841029.526919541</v>
       </c>
       <c r="K100">
-        <v>-1256.937280789658</v>
+        <v>3983044.172929183</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3933,34 +3927,34 @@
         <v>43</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>30.26941540328061</v>
+        <v>1116398.917389852</v>
       </c>
       <c r="G101">
-        <v>546.0905980164482</v>
+        <v>4841758.397361735</v>
       </c>
       <c r="H101">
-        <v>1846.482983251681</v>
+        <v>3986310.164009141</v>
       </c>
       <c r="I101">
-        <v>1081.860447993191</v>
+        <v>1117344.358288637</v>
       </c>
       <c r="J101">
-        <v>-274.5637346801373</v>
+        <v>4840980.875375789</v>
       </c>
       <c r="K101">
-        <v>-1615.053261565623</v>
+        <v>3982666.279169609</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3968,34 +3962,34 @@
         <v>43</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>29.88877149451907</v>
+        <v>1116398.421898129</v>
       </c>
       <c r="G102">
-        <v>562.6668785325787</v>
+        <v>4841774.910146274</v>
       </c>
       <c r="H102">
-        <v>1853.698244881201</v>
+        <v>3986317.747725464</v>
       </c>
       <c r="I102">
-        <v>1182.001286452457</v>
+        <v>1117435.029211569</v>
       </c>
       <c r="J102">
-        <v>-330.6959785149671</v>
+        <v>4840932.223832036</v>
       </c>
       <c r="K102">
-        <v>-1987.525070219976</v>
+        <v>3982273.23674854</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4003,34 +3997,34 @@
         <v>43</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>29.52213290204911</v>
+        <v>1116397.944637404</v>
       </c>
       <c r="G103">
-        <v>579.2431590487091</v>
+        <v>4841791.422930814</v>
       </c>
       <c r="H103">
-        <v>1860.73559964506</v>
+        <v>3986325.144449926</v>
       </c>
       <c r="I103">
-        <v>1284.6080009309</v>
+        <v>1117527.932822562</v>
       </c>
       <c r="J103">
-        <v>-386.828222349797</v>
+        <v>4840883.572288283</v>
       </c>
       <c r="K103">
-        <v>-2374.352706752715</v>
+        <v>3981865.045665976</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4038,34 +4032,34 @@
         <v>43</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>29.16866147866748</v>
+        <v>1116397.484516643</v>
       </c>
       <c r="G104">
-        <v>595.8194395648396</v>
+        <v>4841807.935715354</v>
       </c>
       <c r="H104">
-        <v>1867.603610145343</v>
+        <v>3986332.363182386</v>
       </c>
       <c r="I104">
-        <v>1389.741311356928</v>
+        <v>1117623.124099506</v>
       </c>
       <c r="J104">
-        <v>-442.9604661846268</v>
+        <v>4840834.920744531</v>
       </c>
       <c r="K104">
-        <v>-2775.536171163839</v>
+        <v>3981441.705921917</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4073,34 +4067,34 @@
         <v>43</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>28.82758764716586</v>
+        <v>1116397.040534074</v>
       </c>
       <c r="G105">
-        <v>612.3957200809701</v>
+        <v>4841824.448499893</v>
       </c>
       <c r="H105">
-        <v>1874.310235309961</v>
+        <v>3986339.412288205</v>
       </c>
       <c r="I105">
-        <v>1497.463432831325</v>
+        <v>1117720.65937407</v>
       </c>
       <c r="J105">
-        <v>-499.0927100194567</v>
+        <v>4840786.269200779</v>
       </c>
       <c r="K105">
-        <v>-3191.075463453348</v>
+        <v>3981003.217516363</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4108,34 +4102,34 @@
         <v>43</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D106" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>28.49820335351885</v>
+        <v>1116396.611768008</v>
       </c>
       <c r="G106">
-        <v>628.9720005971006</v>
+        <v>4841840.961284433</v>
       </c>
       <c r="H106">
-        <v>1880.862885838522</v>
+        <v>3986346.299556515</v>
       </c>
       <c r="I106">
-        <v>1607.838112444493</v>
+        <v>1117820.596365039</v>
       </c>
       <c r="J106">
-        <v>-555.224953854286</v>
+        <v>4840737.617657026</v>
       </c>
       <c r="K106">
-        <v>-3620.970583621239</v>
+        <v>3980549.580449313</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4143,34 +4137,34 @@
         <v>43</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>28.17985588530392</v>
+        <v>1116396.197368797</v>
       </c>
       <c r="G107">
-        <v>645.548281113231</v>
+        <v>4841857.474068973</v>
       </c>
       <c r="H107">
-        <v>1887.268473425132</v>
+        <v>3986353.032251964</v>
       </c>
       <c r="I107">
-        <v>1720.930667000294</v>
+        <v>1117922.994212471</v>
       </c>
       <c r="J107">
-        <v>-611.3571976891159</v>
+        <v>4840688.966113273</v>
       </c>
       <c r="K107">
-        <v>-4065.221531667519</v>
+        <v>3980080.794720769</v>
       </c>
     </row>
   </sheetData>
